--- a/tmp/Usecases.xlsx
+++ b/tmp/Usecases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\OneDrive\Máy tính\SEFinalProject\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50F2925-3217-457C-9E49-1FF38B5D6DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A2C783-D599-4D91-B810-A73B6FA42AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -52,6 +52,63 @@
   </si>
   <si>
     <t>UC-07</t>
+  </si>
+  <si>
+    <t>UC-08</t>
+  </si>
+  <si>
+    <t>UC-09</t>
+  </si>
+  <si>
+    <t>UC-10</t>
+  </si>
+  <si>
+    <t>UC-11</t>
+  </si>
+  <si>
+    <t>UC-12</t>
+  </si>
+  <si>
+    <t>UC-13</t>
+  </si>
+  <si>
+    <t>UC-14</t>
+  </si>
+  <si>
+    <t>UC-15</t>
+  </si>
+  <si>
+    <t>Create Goods Received Note</t>
+  </si>
+  <si>
+    <t>Place Order</t>
+  </si>
+  <si>
+    <t>Make Payment</t>
+  </si>
+  <si>
+    <t>Track Order Status</t>
+  </si>
+  <si>
+    <t>Create Goods Delivery Note</t>
+  </si>
+  <si>
+    <t>Update Payment Status</t>
+  </si>
+  <si>
+    <t>View Stock Report</t>
+  </si>
+  <si>
+    <t>View Revenue Report</t>
+  </si>
+  <si>
+    <t>Manage User Accounts</t>
+  </si>
+  <si>
+    <t>Manage Orders</t>
+  </si>
+  <si>
+    <t>Manage Product Catalogue</t>
   </si>
 </sst>
 </file>
@@ -87,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -95,13 +152,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -126,11 +189,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BE775CB-FF0E-40F1-AAC4-7B73B4759877}" name="Table13" displayName="Table13" ref="B4:C11" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="B4:C11" xr:uid="{9BE775CB-FF0E-40F1-AAC4-7B73B4759877}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BE775CB-FF0E-40F1-AAC4-7B73B4759877}" name="Table13" displayName="Table13" ref="B4:C19" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="B4:C19" xr:uid="{9BE775CB-FF0E-40F1-AAC4-7B73B4759877}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B41D923A-B758-4E56-B52D-9B7A0AF1948E}" name="ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{1917D406-6284-46EA-B34A-02C56EFE4A2E}" name="Usecases" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B41D923A-B758-4E56-B52D-9B7A0AF1948E}" name="ID" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{1917D406-6284-46EA-B34A-02C56EFE4A2E}" name="Usecases" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -399,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:C11"/>
+  <dimension ref="B4:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,48 +486,119 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>